--- a/database/industries/kashi/kazar/income/yearly/rial.xlsx
+++ b/database/industries/kashi/kazar/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kazar\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF30279-81D4-4602-839B-3B6CD0EE14A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574CB76F-5695-461C-AA8D-689E63CD53E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,7 +721,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -742,7 +742,7 @@
         <v>3058239</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -763,7 +763,7 @@
         <v>-1771311</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -784,7 +784,7 @@
         <v>1286928</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>-156399</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
@@ -868,7 +868,7 @@
         <v>1130529</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -910,7 +910,7 @@
         <v>-8980</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -931,7 +931,7 @@
         <v>1121549</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
@@ -952,7 +952,7 @@
         <v>-182177</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
@@ -973,7 +973,7 @@
         <v>939372</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>939372</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>804000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/kashi/kazar/income/yearly/rial.xlsx
+++ b/database/industries/kashi/kazar/income/yearly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kazar\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574CB76F-5695-461C-AA8D-689E63CD53E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396A45C8-9039-4190-A739-B5FD7C5A8C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-02-07 (13)</t>
-  </si>
-  <si>
     <t>1399-02-09 (10)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-10 (12)</t>
   </si>
   <si>
-    <t>1401-10-29 (8)</t>
+    <t>1402-02-09 (10)</t>
+  </si>
+  <si>
+    <t>1402-02-09 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
@@ -592,14 +589,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +605,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +616,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +627,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +636,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +647,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +658,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +667,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,261 +718,261 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>578161</v>
+        <v>1005186</v>
       </c>
       <c r="E11" s="13">
-        <v>1005186</v>
+        <v>1561717</v>
       </c>
       <c r="F11" s="13">
-        <v>1561717</v>
+        <v>2229241</v>
       </c>
       <c r="G11" s="13">
-        <v>2229241</v>
+        <v>3058239</v>
       </c>
       <c r="H11" s="13">
-        <v>3058239</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4208226</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-512774</v>
+        <v>-724418</v>
       </c>
       <c r="E12" s="11">
-        <v>-724418</v>
+        <v>-917207</v>
       </c>
       <c r="F12" s="11">
-        <v>-917207</v>
+        <v>-1217079</v>
       </c>
       <c r="G12" s="11">
-        <v>-1217079</v>
+        <v>-1771311</v>
       </c>
       <c r="H12" s="11">
-        <v>-1771311</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2861309</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>65387</v>
+        <v>280768</v>
       </c>
       <c r="E13" s="15">
-        <v>280768</v>
+        <v>644510</v>
       </c>
       <c r="F13" s="15">
-        <v>644510</v>
+        <v>1012162</v>
       </c>
       <c r="G13" s="15">
-        <v>1012162</v>
+        <v>1286928</v>
       </c>
       <c r="H13" s="15">
-        <v>1286928</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1346917</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-66522</v>
+        <v>-72664</v>
       </c>
       <c r="E14" s="11">
-        <v>-72664</v>
+        <v>-86199</v>
       </c>
       <c r="F14" s="11">
-        <v>-86199</v>
+        <v>-106716</v>
       </c>
       <c r="G14" s="11">
-        <v>-106716</v>
+        <v>-156399</v>
       </c>
       <c r="H14" s="11">
-        <v>-156399</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-263559</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
+      <c r="D15" s="13">
+        <v>0</v>
       </c>
       <c r="E15" s="13">
+        <v>-8030</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2414</v>
+      </c>
+      <c r="G15" s="13">
         <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>-8030</v>
-      </c>
-      <c r="G15" s="13">
-        <v>2414</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>5568</v>
+        <v>2065</v>
       </c>
       <c r="E16" s="11">
-        <v>2065</v>
+        <v>2691</v>
       </c>
       <c r="F16" s="11">
-        <v>2691</v>
+        <v>34</v>
       </c>
       <c r="G16" s="11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-3677</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>4433</v>
+        <v>210169</v>
       </c>
       <c r="E17" s="15">
-        <v>210169</v>
+        <v>552972</v>
       </c>
       <c r="F17" s="15">
-        <v>552972</v>
+        <v>907894</v>
       </c>
       <c r="G17" s="15">
-        <v>907894</v>
+        <v>1130529</v>
       </c>
       <c r="H17" s="15">
-        <v>1130529</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1079681</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-26048</v>
+        <v>-20014</v>
       </c>
       <c r="E18" s="11">
-        <v>-20014</v>
+        <v>-12065</v>
       </c>
       <c r="F18" s="11">
-        <v>-12065</v>
+        <v>-2832</v>
       </c>
       <c r="G18" s="11">
-        <v>-2832</v>
+        <v>0</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-5843</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>35778</v>
+        <v>-536</v>
       </c>
       <c r="E19" s="13">
-        <v>-536</v>
+        <v>76883</v>
       </c>
       <c r="F19" s="13">
-        <v>76883</v>
+        <v>85110</v>
       </c>
       <c r="G19" s="13">
-        <v>85110</v>
+        <v>-8980</v>
       </c>
       <c r="H19" s="13">
-        <v>-8980</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15321</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>14163</v>
+        <v>189619</v>
       </c>
       <c r="E20" s="17">
-        <v>189619</v>
+        <v>617790</v>
       </c>
       <c r="F20" s="17">
-        <v>617790</v>
+        <v>990172</v>
       </c>
       <c r="G20" s="17">
-        <v>990172</v>
+        <v>1121549</v>
       </c>
       <c r="H20" s="17">
-        <v>1121549</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1089159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-7547</v>
+        <v>-46567</v>
       </c>
       <c r="E21" s="13">
-        <v>-46567</v>
+        <v>-77043</v>
       </c>
       <c r="F21" s="13">
-        <v>-77043</v>
+        <v>-126423</v>
       </c>
       <c r="G21" s="13">
-        <v>-126423</v>
+        <v>-182177</v>
       </c>
       <c r="H21" s="13">
-        <v>-182177</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-53306</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>6616</v>
+        <v>143052</v>
       </c>
       <c r="E22" s="17">
-        <v>143052</v>
+        <v>540747</v>
       </c>
       <c r="F22" s="17">
-        <v>540747</v>
+        <v>863749</v>
       </c>
       <c r="G22" s="17">
-        <v>863749</v>
+        <v>939372</v>
       </c>
       <c r="H22" s="17">
-        <v>939372</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1035853</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -994,91 +991,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>6616</v>
+        <v>143052</v>
       </c>
       <c r="E24" s="17">
-        <v>143052</v>
+        <v>540747</v>
       </c>
       <c r="F24" s="17">
-        <v>540747</v>
+        <v>863749</v>
       </c>
       <c r="G24" s="17">
-        <v>863749</v>
+        <v>939372</v>
       </c>
       <c r="H24" s="17">
-        <v>939372</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1035853</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="E25" s="13">
-        <v>318</v>
+        <v>1202</v>
       </c>
       <c r="F25" s="13">
-        <v>1202</v>
+        <v>1074</v>
       </c>
       <c r="G25" s="13">
-        <v>1074</v>
+        <v>470</v>
       </c>
       <c r="H25" s="13">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="E26" s="11">
         <v>450000</v>
       </c>
       <c r="F26" s="11">
-        <v>450000</v>
+        <v>804000</v>
       </c>
       <c r="G26" s="11">
-        <v>804000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="11">
-        <v>804000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E27" s="13">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="F27" s="13">
-        <v>270</v>
+        <v>432</v>
       </c>
       <c r="G27" s="13">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="H27" s="13">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
